--- a/imaginary_data.xlsx
+++ b/imaginary_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="198" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="153">
   <si>
     <t>term</t>
   </si>
@@ -468,6 +468,12 @@
   </si>
   <si>
     <t>Whitford</t>
+  </si>
+  <si>
+    <t>bioimaginary</t>
+  </si>
+  <si>
+    <t>Steinberg</t>
   </si>
 </sst>
 </file>
@@ -575,10 +581,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L56" activeCellId="0" sqref="L56"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L57" activeCellId="0" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2577,7 +2583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>149</v>
       </c>
@@ -2609,6 +2615,38 @@
         <v>42</v>
       </c>
       <c r="L56" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L57" s="0" t="s">
         <v>57</v>
       </c>
     </row>
